--- a/Code/Results/Cases/Case_4_238/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_238/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.97544585046634</v>
+        <v>32.10900954952451</v>
       </c>
       <c r="C2">
-        <v>24.01511245318361</v>
+        <v>15.9441301115936</v>
       </c>
       <c r="D2">
-        <v>7.107153214262837</v>
+        <v>6.094444012887717</v>
       </c>
       <c r="E2">
-        <v>7.555278224156837</v>
+        <v>7.269094936807136</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.091395023856578</v>
+        <v>3.799281749459594</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.154654417611127</v>
+        <v>10.19973572489999</v>
       </c>
       <c r="M2">
-        <v>18.41781879428243</v>
+        <v>22.37137161223054</v>
       </c>
       <c r="N2">
-        <v>21.19823889729549</v>
+        <v>25.6605922132307</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>32.73774006339296</v>
+        <v>31.67035328632302</v>
       </c>
       <c r="C3">
-        <v>22.16936138637264</v>
+        <v>15.36641998304677</v>
       </c>
       <c r="D3">
-        <v>6.564772594404725</v>
+        <v>5.995987606352676</v>
       </c>
       <c r="E3">
-        <v>7.136048479116386</v>
+        <v>7.142459020043707</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.112557734854255</v>
+        <v>3.805771587591203</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.094786938618018</v>
+        <v>10.21847189133949</v>
       </c>
       <c r="M3">
-        <v>17.55993522648219</v>
+        <v>22.29249799679208</v>
       </c>
       <c r="N3">
-        <v>20.83858610779331</v>
+        <v>25.56411842884646</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31.34470822947108</v>
+        <v>31.40904751707903</v>
       </c>
       <c r="C4">
-        <v>20.99956658216047</v>
+        <v>15.00694621573715</v>
       </c>
       <c r="D4">
-        <v>6.241020295331432</v>
+        <v>5.936939433341257</v>
       </c>
       <c r="E4">
-        <v>6.874227140014634</v>
+        <v>7.062506627845446</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.125608209401705</v>
+        <v>3.809950286796949</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.062628692668032</v>
+        <v>10.23159034931541</v>
       </c>
       <c r="M4">
-        <v>17.03941032303623</v>
+        <v>22.24994835614695</v>
       </c>
       <c r="N4">
-        <v>20.62451271541277</v>
+        <v>25.50581691277061</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.77206598879683</v>
+        <v>31.3047018142925</v>
       </c>
       <c r="C5">
-        <v>20.51310045564941</v>
+        <v>14.85951700170804</v>
       </c>
       <c r="D5">
-        <v>6.121480525578322</v>
+        <v>5.913259832583921</v>
       </c>
       <c r="E5">
-        <v>6.766291209495312</v>
+        <v>7.029386263382905</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.130953879480104</v>
+        <v>3.81170216233727</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.05061472642347</v>
+        <v>10.23734162851182</v>
       </c>
       <c r="M5">
-        <v>16.82880154542839</v>
+        <v>22.23409303301266</v>
       </c>
       <c r="N5">
-        <v>20.53881904633837</v>
+        <v>25.48229661432623</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30.67667830380883</v>
+        <v>31.28750782852314</v>
       </c>
       <c r="C6">
-        <v>20.43171839776988</v>
+        <v>14.83498754590323</v>
       </c>
       <c r="D6">
-        <v>6.101557210632919</v>
+        <v>5.909351841237879</v>
       </c>
       <c r="E6">
-        <v>6.748290383597267</v>
+        <v>7.023854495456426</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.131843537621811</v>
+        <v>3.81199602835203</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.048683892388958</v>
+        <v>10.23832109281871</v>
       </c>
       <c r="M6">
-        <v>16.79392112701263</v>
+        <v>22.23155002880334</v>
       </c>
       <c r="N6">
-        <v>20.52467876269086</v>
+        <v>25.47840555216308</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31.33700556369834</v>
+        <v>31.40763146209856</v>
       </c>
       <c r="C7">
-        <v>20.99304615997843</v>
+        <v>15.00496138992222</v>
       </c>
       <c r="D7">
-        <v>6.239413082886962</v>
+        <v>5.936618492348755</v>
       </c>
       <c r="E7">
-        <v>6.872776653119371</v>
+        <v>7.062062119701591</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.125680175454317</v>
+        <v>3.809973714369005</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.062462333955083</v>
+        <v>10.23166627235119</v>
       </c>
       <c r="M7">
-        <v>17.03656388463978</v>
+        <v>22.2497285108675</v>
       </c>
       <c r="N7">
-        <v>20.62335096166111</v>
+        <v>25.50549874193517</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34.20766306918765</v>
+        <v>31.95616697971421</v>
       </c>
       <c r="C8">
-        <v>23.38587911472402</v>
+        <v>15.74606991131041</v>
       </c>
       <c r="D8">
-        <v>6.922543087123549</v>
+        <v>6.060222887875911</v>
       </c>
       <c r="E8">
-        <v>7.411551840673702</v>
+        <v>7.225894813038923</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.098688846609817</v>
+        <v>3.801479356875586</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.13301512004833</v>
+        <v>10.20586056805451</v>
       </c>
       <c r="M8">
-        <v>18.12067102724144</v>
+        <v>22.34295971062307</v>
       </c>
       <c r="N8">
-        <v>21.07272681588156</v>
+        <v>25.62713626331848</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>39.74193314333679</v>
+        <v>33.09011809978738</v>
       </c>
       <c r="C9">
-        <v>27.82269389171955</v>
+        <v>17.1514874282383</v>
       </c>
       <c r="D9">
-        <v>8.218626491352731</v>
+        <v>6.312412229358761</v>
       </c>
       <c r="E9">
-        <v>8.441429583350031</v>
+        <v>7.529181212555945</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.045479383811699</v>
+        <v>3.78634861261366</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.311334596073809</v>
+        <v>10.16808955054508</v>
       </c>
       <c r="M9">
-        <v>20.3036164519086</v>
+        <v>22.57210770404376</v>
       </c>
       <c r="N9">
-        <v>22.01625212032291</v>
+        <v>25.87292882592187</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44.02222902062726</v>
+        <v>33.95126017936242</v>
       </c>
       <c r="C10">
-        <v>30.98913477444375</v>
+        <v>18.14280309718096</v>
       </c>
       <c r="D10">
-        <v>9.136462897742959</v>
+        <v>6.501856773865786</v>
       </c>
       <c r="E10">
-        <v>9.198248817245453</v>
+        <v>7.740353546323242</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.004926048323246</v>
+        <v>3.776145962239674</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.472615397202361</v>
+        <v>10.1481968052103</v>
       </c>
       <c r="M10">
-        <v>22.23596436935562</v>
+        <v>22.7681570139602</v>
       </c>
       <c r="N10">
-        <v>22.76328968849317</v>
+        <v>26.05773592287711</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>45.97326822164243</v>
+        <v>34.34748457598086</v>
       </c>
       <c r="C11">
-        <v>32.42933552563119</v>
+        <v>18.58270574976291</v>
       </c>
       <c r="D11">
-        <v>9.552129831226972</v>
+        <v>6.588562033660648</v>
       </c>
       <c r="E11">
-        <v>9.548148084972876</v>
+        <v>7.833760629792271</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.985757516637365</v>
+        <v>3.771699322838547</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.554336705774475</v>
+        <v>10.14086011226278</v>
       </c>
       <c r="M11">
-        <v>23.24661153314405</v>
+        <v>22.86320778259096</v>
       </c>
       <c r="N11">
-        <v>23.11991737513086</v>
+        <v>26.14267789313073</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>46.71550431607248</v>
+        <v>34.49803504083198</v>
       </c>
       <c r="C12">
-        <v>32.97700803610483</v>
+        <v>18.74754707051715</v>
       </c>
       <c r="D12">
-        <v>9.709907638010213</v>
+        <v>6.621439642575688</v>
       </c>
       <c r="E12">
-        <v>9.682127673847003</v>
+        <v>7.868739361233168</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.978348476678583</v>
+        <v>3.770043191923012</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.586686101807457</v>
+        <v>10.13832866513054</v>
       </c>
       <c r="M12">
-        <v>23.63012754610891</v>
+        <v>22.90002936964777</v>
       </c>
       <c r="N12">
-        <v>23.2579806711444</v>
+        <v>26.17496378804927</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>46.55544224567862</v>
+        <v>34.4655908174535</v>
       </c>
       <c r="C13">
-        <v>32.85890933290464</v>
+        <v>18.71212514671152</v>
       </c>
       <c r="D13">
-        <v>9.675898353645946</v>
+        <v>6.614357385184599</v>
       </c>
       <c r="E13">
-        <v>9.65319368771266</v>
+        <v>7.861223681964709</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.979951737390437</v>
+        <v>3.770398641002521</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.579652782069627</v>
+        <v>10.13886287301411</v>
       </c>
       <c r="M13">
-        <v>23.54746598458719</v>
+        <v>22.89206262582581</v>
       </c>
       <c r="N13">
-        <v>23.22810038185084</v>
+        <v>26.16800518195683</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>46.0342440314887</v>
+        <v>34.35986102718088</v>
       </c>
       <c r="C14">
-        <v>32.47433073135689</v>
+        <v>18.59630302005928</v>
       </c>
       <c r="D14">
-        <v>9.56509842890231</v>
+        <v>6.591266184905667</v>
       </c>
       <c r="E14">
-        <v>9.559136314262297</v>
+        <v>7.83664627505583</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.985151303860613</v>
+        <v>3.771562518045298</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.556968609111018</v>
+        <v>10.14064689944497</v>
       </c>
       <c r="M14">
-        <v>23.27813731985176</v>
+        <v>22.86622061919849</v>
       </c>
       <c r="N14">
-        <v>23.13121132225913</v>
+        <v>26.14533169464946</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>45.71554171837246</v>
+        <v>34.29516074237331</v>
       </c>
       <c r="C15">
-        <v>32.23914662637763</v>
+        <v>18.52512782922333</v>
       </c>
       <c r="D15">
-        <v>9.497301343261762</v>
+        <v>6.577126998843949</v>
       </c>
       <c r="E15">
-        <v>9.501740117326197</v>
+        <v>7.821540488478466</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.988314975013941</v>
+        <v>3.772279027656055</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.543263679318902</v>
+        <v>10.14177182283643</v>
       </c>
       <c r="M15">
-        <v>23.11332251381712</v>
+        <v>22.85049897216728</v>
       </c>
       <c r="N15">
-        <v>23.07227795973731</v>
+        <v>26.13145902528552</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>43.89502611121328</v>
+        <v>33.92544456831762</v>
       </c>
       <c r="C16">
-        <v>30.89519304091193</v>
+        <v>18.11381868824521</v>
       </c>
       <c r="D16">
-        <v>9.109311217808081</v>
+        <v>6.496198257874919</v>
       </c>
       <c r="E16">
-        <v>9.175547653834414</v>
+        <v>7.734194804797577</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.006160578750895</v>
+        <v>3.776440453514248</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.467458783828214</v>
+        <v>10.14871078329499</v>
       </c>
       <c r="M16">
-        <v>22.16993837907451</v>
+        <v>22.76206196915325</v>
       </c>
       <c r="N16">
-        <v>22.74036832504185</v>
+        <v>26.05220187749418</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>42.78095595655221</v>
+        <v>33.69968721532132</v>
       </c>
       <c r="C17">
-        <v>30.07210946933243</v>
+        <v>17.85854967006221</v>
       </c>
       <c r="D17">
-        <v>8.871215186735656</v>
+        <v>6.446663169429214</v>
       </c>
       <c r="E17">
-        <v>8.977290755893263</v>
+        <v>7.679922984906387</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.01689465992863</v>
+        <v>3.779043004459938</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.423220999582795</v>
+        <v>10.15340663722571</v>
       </c>
       <c r="M17">
-        <v>21.5909223929048</v>
+        <v>22.70930067416688</v>
       </c>
       <c r="N17">
-        <v>22.54142555653385</v>
+        <v>26.00379996450611</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42.14032430809671</v>
+        <v>33.57026791487574</v>
       </c>
       <c r="C18">
-        <v>29.59849828906198</v>
+        <v>17.71069320529041</v>
       </c>
       <c r="D18">
-        <v>8.734046046614651</v>
+        <v>6.418223234977767</v>
       </c>
       <c r="E18">
-        <v>8.86373665445735</v>
+        <v>7.648457830595086</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.023004256471323</v>
+        <v>3.780558255494405</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.398548045682591</v>
+        <v>10.15626873817538</v>
       </c>
       <c r="M18">
-        <v>21.25733667942166</v>
+        <v>22.67950703760356</v>
       </c>
       <c r="N18">
-        <v>22.4285349131563</v>
+        <v>25.97604289771682</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>41.9233709613347</v>
+        <v>33.52652686230774</v>
       </c>
       <c r="C19">
-        <v>29.43804815841827</v>
+        <v>17.66045913319011</v>
       </c>
       <c r="D19">
-        <v>8.687548093353001</v>
+        <v>6.408603751757945</v>
       </c>
       <c r="E19">
-        <v>8.825354233046861</v>
+        <v>7.637761762211269</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.025063011445872</v>
+        <v>3.781074450223411</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.390321452171934</v>
+        <v>10.1572654609174</v>
       </c>
       <c r="M19">
-        <v>21.14425749722767</v>
+        <v>22.66951490311476</v>
       </c>
       <c r="N19">
-        <v>22.39056052499358</v>
+        <v>25.96665914473356</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>42.89951710963962</v>
+        <v>33.72367592433013</v>
       </c>
       <c r="C20">
-        <v>30.15973367393218</v>
+        <v>17.88583150459184</v>
       </c>
       <c r="D20">
-        <v>8.896579900896384</v>
+        <v>6.451931181456047</v>
       </c>
       <c r="E20">
-        <v>8.998341890135514</v>
+        <v>7.685726207491325</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.01575895425538</v>
+        <v>3.778764063054385</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.427849064240617</v>
+        <v>10.15289007117289</v>
       </c>
       <c r="M20">
-        <v>21.6526073440802</v>
+        <v>22.71486005263408</v>
       </c>
       <c r="N20">
-        <v>22.56244062909906</v>
+        <v>26.00894393627869</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46.1872121223556</v>
+        <v>34.39090369351091</v>
       </c>
       <c r="C21">
-        <v>32.58720603371962</v>
+        <v>18.63037112685303</v>
       </c>
       <c r="D21">
-        <v>9.597626803210925</v>
+        <v>6.598047676055184</v>
       </c>
       <c r="E21">
-        <v>9.586716549329138</v>
+        <v>7.843875987857627</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.983628591235875</v>
+        <v>3.771219909113791</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.563591499264771</v>
+        <v>10.14011618551912</v>
       </c>
       <c r="M21">
-        <v>23.35720967098964</v>
+        <v>22.87378870594474</v>
       </c>
       <c r="N21">
-        <v>23.1595823467453</v>
+        <v>26.1519882276943</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>48.35796019973904</v>
+        <v>34.82988035547266</v>
       </c>
       <c r="C22">
-        <v>34.18879772369851</v>
+        <v>19.10677016173126</v>
       </c>
       <c r="D22">
-        <v>10.05843972495546</v>
+        <v>6.6937870800807</v>
       </c>
       <c r="E22">
-        <v>9.980383121165401</v>
+        <v>7.944943852531019</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.961719571666536</v>
+        <v>3.766450786466286</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.660630196109113</v>
+        <v>10.13320647163836</v>
       </c>
       <c r="M22">
-        <v>24.47703085831835</v>
+        <v>22.98247524281961</v>
       </c>
       <c r="N22">
-        <v>23.5678703334166</v>
+        <v>26.24617405338016</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>47.1961527912725</v>
+        <v>34.59536886354837</v>
       </c>
       <c r="C23">
-        <v>33.33163213693827</v>
+        <v>18.8534854807044</v>
       </c>
       <c r="D23">
-        <v>9.811985202670853</v>
+        <v>6.642676972436799</v>
       </c>
       <c r="E23">
-        <v>9.769152145336941</v>
+        <v>7.891215046661223</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.973515733078504</v>
+        <v>3.768981476226012</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.607993062845146</v>
+        <v>10.13676250283576</v>
       </c>
       <c r="M23">
-        <v>23.87821142008776</v>
+        <v>22.92403196145166</v>
       </c>
       <c r="N23">
-        <v>23.34805514175362</v>
+        <v>26.19584321458336</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>42.8459162434484</v>
+        <v>33.71282946114642</v>
       </c>
       <c r="C24">
-        <v>30.12012021166138</v>
+        <v>17.87350079838534</v>
       </c>
       <c r="D24">
-        <v>8.885113445505606</v>
+        <v>6.449549391067482</v>
       </c>
       <c r="E24">
-        <v>8.98882339149281</v>
+        <v>7.683103390689718</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.016272595254387</v>
+        <v>3.778890113232337</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.425754363537013</v>
+        <v>10.15312310491091</v>
       </c>
       <c r="M24">
-        <v>21.62472186825332</v>
+        <v>22.71234497592289</v>
       </c>
       <c r="N24">
-        <v>22.552935134283</v>
+        <v>26.00661812871849</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38.22925949745139</v>
+        <v>32.7778826577995</v>
       </c>
       <c r="C25">
-        <v>26.64425615450793</v>
+        <v>16.77773994607814</v>
       </c>
       <c r="D25">
-        <v>7.875593421978482</v>
+        <v>6.243326470912481</v>
       </c>
       <c r="E25">
-        <v>8.164271112836911</v>
+        <v>7.449133543277969</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.060019399028576</v>
+        <v>3.79028017017015</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.258276689672199</v>
+        <v>10.17693006429953</v>
       </c>
       <c r="M25">
-        <v>19.705402178137</v>
+        <v>22.50520746482622</v>
       </c>
       <c r="N25">
-        <v>21.75293274162524</v>
+        <v>25.80567783492345</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_238/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_238/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.10900954952451</v>
+        <v>34.97544585046639</v>
       </c>
       <c r="C2">
-        <v>15.9441301115936</v>
+        <v>24.01511245318391</v>
       </c>
       <c r="D2">
-        <v>6.094444012887717</v>
+        <v>7.107153214262869</v>
       </c>
       <c r="E2">
-        <v>7.269094936807136</v>
+        <v>7.555278224157015</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.799281749459594</v>
+        <v>2.091395023856574</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.19973572489999</v>
+        <v>6.154654417611166</v>
       </c>
       <c r="M2">
-        <v>22.37137161223054</v>
+        <v>18.41781879428242</v>
       </c>
       <c r="N2">
-        <v>25.6605922132307</v>
+        <v>21.19823889729543</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.67035328632302</v>
+        <v>32.73774006339302</v>
       </c>
       <c r="C3">
-        <v>15.36641998304677</v>
+        <v>22.16936138637276</v>
       </c>
       <c r="D3">
-        <v>5.995987606352676</v>
+        <v>6.5647725944048</v>
       </c>
       <c r="E3">
-        <v>7.142459020043707</v>
+        <v>7.136048479116668</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.805771587591203</v>
+        <v>2.112557734854127</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.21847189133949</v>
+        <v>6.094786938618099</v>
       </c>
       <c r="M3">
-        <v>22.29249799679208</v>
+        <v>17.55993522648222</v>
       </c>
       <c r="N3">
-        <v>25.56411842884646</v>
+        <v>20.83858610779327</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31.40904751707903</v>
+        <v>31.34470822947106</v>
       </c>
       <c r="C4">
-        <v>15.00694621573715</v>
+        <v>20.99956658216052</v>
       </c>
       <c r="D4">
-        <v>5.936939433341257</v>
+        <v>6.241020295331444</v>
       </c>
       <c r="E4">
-        <v>7.062506627845446</v>
+        <v>6.874227140014624</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.809950286796949</v>
+        <v>2.125608209401711</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.23159034931541</v>
+        <v>6.062628692668008</v>
       </c>
       <c r="M4">
-        <v>22.24994835614695</v>
+        <v>17.03941032303617</v>
       </c>
       <c r="N4">
-        <v>25.50581691277061</v>
+        <v>20.62451271541264</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31.3047018142925</v>
+        <v>30.77206598879674</v>
       </c>
       <c r="C5">
-        <v>14.85951700170804</v>
+        <v>20.51310045564952</v>
       </c>
       <c r="D5">
-        <v>5.913259832583921</v>
+        <v>6.121480525578349</v>
       </c>
       <c r="E5">
-        <v>7.029386263382905</v>
+        <v>6.766291209495407</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.81170216233727</v>
+        <v>2.130953879480241</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.23734162851182</v>
+        <v>6.050614726423458</v>
       </c>
       <c r="M5">
-        <v>22.23409303301266</v>
+        <v>16.82880154542826</v>
       </c>
       <c r="N5">
-        <v>25.48229661432623</v>
+        <v>20.53881904633818</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31.28750782852314</v>
+        <v>30.67667830380884</v>
       </c>
       <c r="C6">
-        <v>14.83498754590323</v>
+        <v>20.43171839776987</v>
       </c>
       <c r="D6">
-        <v>5.909351841237879</v>
+        <v>6.101557210632903</v>
       </c>
       <c r="E6">
-        <v>7.023854495456426</v>
+        <v>6.748290383597209</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.81199602835203</v>
+        <v>2.131843537621557</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.23832109281871</v>
+        <v>6.048683892388908</v>
       </c>
       <c r="M6">
-        <v>22.23155002880334</v>
+        <v>16.79392112701265</v>
       </c>
       <c r="N6">
-        <v>25.47840555216308</v>
+        <v>20.52467876269086</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31.40763146209856</v>
+        <v>31.33700556369832</v>
       </c>
       <c r="C7">
-        <v>15.00496138992222</v>
+        <v>20.99304615997823</v>
       </c>
       <c r="D7">
-        <v>5.936618492348755</v>
+        <v>6.239413082886982</v>
       </c>
       <c r="E7">
-        <v>7.062062119701591</v>
+        <v>6.87277665311925</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.809973714369005</v>
+        <v>2.125680175454314</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.23166627235119</v>
+        <v>6.062462333955168</v>
       </c>
       <c r="M7">
-        <v>22.2497285108675</v>
+        <v>17.03656388463983</v>
       </c>
       <c r="N7">
-        <v>25.50549874193517</v>
+        <v>20.62335096166123</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.95616697971421</v>
+        <v>34.20766306918769</v>
       </c>
       <c r="C8">
-        <v>15.74606991131041</v>
+        <v>23.38587911472419</v>
       </c>
       <c r="D8">
-        <v>6.060222887875911</v>
+        <v>6.92254308712352</v>
       </c>
       <c r="E8">
-        <v>7.225894813038923</v>
+        <v>7.411551840673773</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.801479356875586</v>
+        <v>2.098688846610076</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.20586056805451</v>
+        <v>6.13301512004822</v>
       </c>
       <c r="M8">
-        <v>22.34295971062307</v>
+        <v>18.12067102724137</v>
       </c>
       <c r="N8">
-        <v>25.62713626331848</v>
+        <v>21.0727268158815</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.09011809978738</v>
+        <v>39.74193314333689</v>
       </c>
       <c r="C9">
-        <v>17.1514874282383</v>
+        <v>27.82269389171974</v>
       </c>
       <c r="D9">
-        <v>6.312412229358761</v>
+        <v>8.218626491352845</v>
       </c>
       <c r="E9">
-        <v>7.529181212555945</v>
+        <v>8.441429583350219</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.78634861261366</v>
+        <v>2.04547938381182</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.16808955054508</v>
+        <v>6.311334596073777</v>
       </c>
       <c r="M9">
-        <v>22.57210770404376</v>
+        <v>20.30361645190862</v>
       </c>
       <c r="N9">
-        <v>25.87292882592187</v>
+        <v>22.01625212032291</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.95126017936242</v>
+        <v>44.0222290206272</v>
       </c>
       <c r="C10">
-        <v>18.14280309718096</v>
+        <v>30.98913477444369</v>
       </c>
       <c r="D10">
-        <v>6.501856773865786</v>
+        <v>9.136462897742858</v>
       </c>
       <c r="E10">
-        <v>7.740353546323242</v>
+        <v>9.198248817245418</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.776145962239674</v>
+        <v>2.00492604832271</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.1481968052103</v>
+        <v>6.472615397202391</v>
       </c>
       <c r="M10">
-        <v>22.7681570139602</v>
+        <v>22.23596436935556</v>
       </c>
       <c r="N10">
-        <v>26.05773592287711</v>
+        <v>22.76328968849323</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.34748457598086</v>
+        <v>45.97326822164216</v>
       </c>
       <c r="C11">
-        <v>18.58270574976291</v>
+        <v>32.42933552563105</v>
       </c>
       <c r="D11">
-        <v>6.588562033660648</v>
+        <v>9.552129831226836</v>
       </c>
       <c r="E11">
-        <v>7.833760629792271</v>
+        <v>9.54814808497289</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.771699322838547</v>
+        <v>1.985757516637209</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.14086011226278</v>
+        <v>6.554336705774516</v>
       </c>
       <c r="M11">
-        <v>22.86320778259096</v>
+        <v>23.24661153314387</v>
       </c>
       <c r="N11">
-        <v>26.14267789313073</v>
+        <v>23.11991737513093</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.49803504083198</v>
+        <v>46.71550431607249</v>
       </c>
       <c r="C12">
-        <v>18.74754707051715</v>
+        <v>32.97700803610481</v>
       </c>
       <c r="D12">
-        <v>6.621439642575688</v>
+        <v>9.709907638010081</v>
       </c>
       <c r="E12">
-        <v>7.868739361233168</v>
+        <v>9.682127673847026</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.770043191923012</v>
+        <v>1.978348476678602</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.13832866513054</v>
+        <v>6.586686101807428</v>
       </c>
       <c r="M12">
-        <v>22.90002936964777</v>
+        <v>23.6301275461089</v>
       </c>
       <c r="N12">
-        <v>26.17496378804927</v>
+        <v>23.25798067114451</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.4655908174535</v>
+        <v>46.55544224567875</v>
       </c>
       <c r="C13">
-        <v>18.71212514671152</v>
+        <v>32.85890933290484</v>
       </c>
       <c r="D13">
-        <v>6.614357385184599</v>
+        <v>9.675898353646062</v>
       </c>
       <c r="E13">
-        <v>7.861223681964709</v>
+        <v>9.653193687712577</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.770398641002521</v>
+        <v>1.979951737390298</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.13886287301411</v>
+        <v>6.579652782069529</v>
       </c>
       <c r="M13">
-        <v>22.89206262582581</v>
+        <v>23.5474659845873</v>
       </c>
       <c r="N13">
-        <v>26.16800518195683</v>
+        <v>23.2281003818509</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.35986102718088</v>
+        <v>46.03424403148869</v>
       </c>
       <c r="C14">
-        <v>18.59630302005928</v>
+        <v>32.47433073135693</v>
       </c>
       <c r="D14">
-        <v>6.591266184905667</v>
+        <v>9.56509842890233</v>
       </c>
       <c r="E14">
-        <v>7.83664627505583</v>
+        <v>9.559136314262398</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.771562518045298</v>
+        <v>1.985151303860628</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.14064689944497</v>
+        <v>6.556968609111018</v>
       </c>
       <c r="M14">
-        <v>22.86622061919849</v>
+        <v>23.27813731985177</v>
       </c>
       <c r="N14">
-        <v>26.14533169464946</v>
+        <v>23.13121132225913</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.29516074237331</v>
+        <v>45.715541718373</v>
       </c>
       <c r="C15">
-        <v>18.52512782922333</v>
+        <v>32.23914662637812</v>
       </c>
       <c r="D15">
-        <v>6.577126998843949</v>
+        <v>9.497301343261737</v>
       </c>
       <c r="E15">
-        <v>7.821540488478466</v>
+        <v>9.501740117326376</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.772279027656055</v>
+        <v>1.988314975013808</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.14177182283643</v>
+        <v>6.543263679318889</v>
       </c>
       <c r="M15">
-        <v>22.85049897216728</v>
+        <v>23.11332251381743</v>
       </c>
       <c r="N15">
-        <v>26.13145902528552</v>
+        <v>23.07227795973738</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.92544456831762</v>
+        <v>43.89502611121316</v>
       </c>
       <c r="C16">
-        <v>18.11381868824521</v>
+        <v>30.89519304091183</v>
       </c>
       <c r="D16">
-        <v>6.496198257874919</v>
+        <v>9.109311217808221</v>
       </c>
       <c r="E16">
-        <v>7.734194804797577</v>
+        <v>9.175547653834345</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.776440453514248</v>
+        <v>2.006160578751186</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.14871078329499</v>
+        <v>6.467458783828198</v>
       </c>
       <c r="M16">
-        <v>22.76206196915325</v>
+        <v>22.16993837907444</v>
       </c>
       <c r="N16">
-        <v>26.05220187749418</v>
+        <v>22.7403683250419</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.69968721532132</v>
+        <v>42.78095595655194</v>
       </c>
       <c r="C17">
-        <v>17.85854967006221</v>
+        <v>30.07210946933204</v>
       </c>
       <c r="D17">
-        <v>6.446663169429214</v>
+        <v>8.871215186735594</v>
       </c>
       <c r="E17">
-        <v>7.679922984906387</v>
+        <v>8.97729075589303</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.779043004459938</v>
+        <v>2.016894659928639</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.15340663722571</v>
+        <v>6.423220999582757</v>
       </c>
       <c r="M17">
-        <v>22.70930067416688</v>
+        <v>21.59092239290464</v>
       </c>
       <c r="N17">
-        <v>26.00379996450611</v>
+        <v>22.54142555653392</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.57026791487574</v>
+        <v>42.14032430809674</v>
       </c>
       <c r="C18">
-        <v>17.71069320529041</v>
+        <v>29.59849828906195</v>
       </c>
       <c r="D18">
-        <v>6.418223234977767</v>
+        <v>8.73404604661466</v>
       </c>
       <c r="E18">
-        <v>7.648457830595086</v>
+        <v>8.863736654457298</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.780558255494405</v>
+        <v>2.023004256471349</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.15626873817538</v>
+        <v>6.398548045682547</v>
       </c>
       <c r="M18">
-        <v>22.67950703760356</v>
+        <v>21.25733667942168</v>
       </c>
       <c r="N18">
-        <v>25.97604289771682</v>
+        <v>22.42853491315632</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.52652686230774</v>
+        <v>41.92337096133457</v>
       </c>
       <c r="C19">
-        <v>17.66045913319011</v>
+        <v>29.438048158418</v>
       </c>
       <c r="D19">
-        <v>6.408603751757945</v>
+        <v>8.687548093352932</v>
       </c>
       <c r="E19">
-        <v>7.637761762211269</v>
+        <v>8.825354233046797</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.781074450223411</v>
+        <v>2.025063011446256</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.1572654609174</v>
+        <v>6.390321452171952</v>
       </c>
       <c r="M19">
-        <v>22.66951490311476</v>
+        <v>21.14425749722757</v>
       </c>
       <c r="N19">
-        <v>25.96665914473356</v>
+        <v>22.39056052499366</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.72367592433013</v>
+        <v>42.89951710963958</v>
       </c>
       <c r="C20">
-        <v>17.88583150459184</v>
+        <v>30.15973367393239</v>
       </c>
       <c r="D20">
-        <v>6.451931181456047</v>
+        <v>8.896579900896322</v>
       </c>
       <c r="E20">
-        <v>7.685726207491325</v>
+        <v>8.998341890135684</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.778764063054385</v>
+        <v>2.015758954255237</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.15289007117289</v>
+        <v>6.42784906424064</v>
       </c>
       <c r="M20">
-        <v>22.71486005263408</v>
+        <v>21.6526073440802</v>
       </c>
       <c r="N20">
-        <v>26.00894393627869</v>
+        <v>22.56244062909895</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.39090369351091</v>
+        <v>46.18721212235567</v>
       </c>
       <c r="C21">
-        <v>18.63037112685303</v>
+        <v>32.5872060337198</v>
       </c>
       <c r="D21">
-        <v>6.598047676055184</v>
+        <v>9.597626803211009</v>
       </c>
       <c r="E21">
-        <v>7.843875987857627</v>
+        <v>9.586716549329156</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.771219909113791</v>
+        <v>1.98362859123588</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.14011618551912</v>
+        <v>6.563591499264749</v>
       </c>
       <c r="M21">
-        <v>22.87378870594474</v>
+        <v>23.35720967098966</v>
       </c>
       <c r="N21">
-        <v>26.1519882276943</v>
+        <v>23.15958234674532</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.82988035547266</v>
+        <v>48.35796019973916</v>
       </c>
       <c r="C22">
-        <v>19.10677016173126</v>
+        <v>34.18879772369865</v>
       </c>
       <c r="D22">
-        <v>6.6937870800807</v>
+        <v>10.05843972495555</v>
       </c>
       <c r="E22">
-        <v>7.944943852531019</v>
+        <v>9.980383121165511</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.766450786466286</v>
+        <v>1.961719571666289</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.13320647163836</v>
+        <v>6.660630196109146</v>
       </c>
       <c r="M22">
-        <v>22.98247524281961</v>
+        <v>24.47703085831844</v>
       </c>
       <c r="N22">
-        <v>26.24617405338016</v>
+        <v>23.56787033341658</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.59536886354837</v>
+        <v>47.19615279127219</v>
       </c>
       <c r="C23">
-        <v>18.8534854807044</v>
+        <v>33.3316321369381</v>
       </c>
       <c r="D23">
-        <v>6.642676972436799</v>
+        <v>9.81198520267086</v>
       </c>
       <c r="E23">
-        <v>7.891215046661223</v>
+        <v>9.769152145336811</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.768981476226012</v>
+        <v>1.973515733078738</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.13676250283576</v>
+        <v>6.607993062845109</v>
       </c>
       <c r="M23">
-        <v>22.92403196145166</v>
+        <v>23.87821142008762</v>
       </c>
       <c r="N23">
-        <v>26.19584321458336</v>
+        <v>23.34805514175367</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.71282946114642</v>
+        <v>42.84591624344889</v>
       </c>
       <c r="C24">
-        <v>17.87350079838534</v>
+        <v>30.12012021166179</v>
       </c>
       <c r="D24">
-        <v>6.449549391067482</v>
+        <v>8.885113445505654</v>
       </c>
       <c r="E24">
-        <v>7.683103390689718</v>
+        <v>8.988823391493002</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.778890113232337</v>
+        <v>2.016272595254231</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.15312310491091</v>
+        <v>6.425754363536977</v>
       </c>
       <c r="M24">
-        <v>22.71234497592289</v>
+        <v>21.6247218682536</v>
       </c>
       <c r="N24">
-        <v>26.00661812871849</v>
+        <v>22.55293513428304</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.7778826577995</v>
+        <v>38.2292594974516</v>
       </c>
       <c r="C25">
-        <v>16.77773994607814</v>
+        <v>26.64425615450823</v>
       </c>
       <c r="D25">
-        <v>6.243326470912481</v>
+        <v>7.875593421978542</v>
       </c>
       <c r="E25">
-        <v>7.449133543277969</v>
+        <v>8.164271112837076</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.79028017017015</v>
+        <v>2.060019399028596</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.17693006429953</v>
+        <v>6.258276689672206</v>
       </c>
       <c r="M25">
-        <v>22.50520746482622</v>
+        <v>19.70540217813701</v>
       </c>
       <c r="N25">
-        <v>25.80567783492345</v>
+        <v>21.75293274162508</v>
       </c>
       <c r="O25">
         <v>0</v>
